--- a/valid_excel.xlsx
+++ b/valid_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19095" windowHeight="7170" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19095" windowHeight="7170" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17417,8 +17417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE4" workbookViewId="0">
-      <selection activeCell="BM8" sqref="BM8"/>
+    <sheetView topLeftCell="BE4" workbookViewId="0">
+      <selection activeCell="BT11" sqref="BT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24070,8 +24070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34058,8 +34058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34139,6 +34139,14 @@
       <c r="P3">
         <f>T5+T18+T31</f>
         <v>5.1648677517964002E-4</v>
+      </c>
+      <c r="Q3">
+        <f>T18+T5</f>
+        <v>3.4407408625834193E-4</v>
+      </c>
+      <c r="R3">
+        <f>T5</f>
+        <v>1.8443672873939319E-4</v>
       </c>
     </row>
     <row r="4" spans="1:23">

--- a/valid_excel.xlsx
+++ b/valid_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19095" windowHeight="7170" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19095" windowHeight="7170" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3503,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -4221,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:X58"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4235,7 +4235,7 @@
     <col min="23" max="23" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4317,8 +4317,16 @@
         <f>T5+P19</f>
         <v>3.6317998419794053</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <f>T5+Q19</f>
+        <v>3.631627429290484</v>
+      </c>
+      <c r="Y2">
+        <f>T5+R19</f>
+        <v>3.6314677919329652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4339,12 +4347,12 @@
         <v>5.303832356243448</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4365,12 +4373,12 @@
         <v>3.6312833552042258</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4431,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4492,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4553,7 +4561,7 @@
         <v>4.0806851309387122</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4614,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4675,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4797,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4919,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5022,6 +5030,14 @@
       <c r="P19">
         <f>T21+T34+T47</f>
         <v>5.1648677517964002E-4</v>
+      </c>
+      <c r="Q19">
+        <f>T21+T34</f>
+        <v>3.4407408625834193E-4</v>
+      </c>
+      <c r="R19">
+        <f>T21</f>
+        <v>1.8443672873939319E-4</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -34058,7 +34074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
